--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2417913.085755573</v>
+        <v>-2420964.329709414</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858992</v>
+        <v>8656875.781858984</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.7627700121621</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>43.0015285581915</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>132.9971948932743</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.7571515107716</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>123.2489740555616</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.8341064702163</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>19.85424680209022</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>234.4871813790489</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>303.7372066927336</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.332975795529264</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>68.43141783824916</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.90246112264865</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>115.1131774584548</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>55.16544759102441</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>138.2178776215701</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>203.4068132192033</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>84.69473660442891</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4056296098115</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292609</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247749</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734099625</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2479,22 +2479,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>40.46606172806098</v>
+        <v>141.7411607669885</v>
       </c>
       <c r="H25" t="n">
-        <v>120.470367422281</v>
+        <v>120.4703674222811</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.06777291779844</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>64.64750517800755</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>165.4843778394022</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>195.2643017841295</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>261.9271907135731</v>
+        <v>146.3639623467903</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U30" t="n">
         <v>225.7478006422472</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898978</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065883</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652587</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
-        <v>156.741638509605</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352487</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317885</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445515</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969976</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600553</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U33" t="n">
         <v>225.7478006422472</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898978</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065883</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
-        <v>156.741638509605</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352487</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317885</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445515</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969976</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600553</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U36" t="n">
         <v>225.7478006422472</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898978</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065883</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652588</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
-        <v>156.741638509605</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352487</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317885</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445515</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969976</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600553</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U39" t="n">
         <v>225.7478006422472</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898978</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065883</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352487</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317885</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445515</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969976</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600553</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652576</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>976.0831314253398</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>607.1206144849282</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>607.1206144849282</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2598.684514116199</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2380.049847088262</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2126.288061726353</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2126.288061726353</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2126.288061726353</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1752.822303465273</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1362.682971489462</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>338.4002221349974</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>188.2835827226617</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4531,7 +4531,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>530.3944877309076</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1160.852583904132</v>
+        <v>2053.247973680502</v>
       </c>
       <c r="C5" t="n">
-        <v>1160.852583904132</v>
+        <v>1684.28545674009</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1326.01975813334</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>940.2315055350957</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>529.2456007454882</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>515.3221966840791</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y5" t="n">
-        <v>1547.452423968253</v>
+        <v>2053.247973680502</v>
       </c>
     </row>
     <row r="6">
@@ -4659,7 +4659,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>491.2732454397182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2695.802650820718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2695.802650820718</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2695.802650820718</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2695.802650820718</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2695.802650820718</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2695.802650820718</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2695.802650820718</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>2305.663318844906</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,13 +5072,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5121,7 +5121,7 @@
         <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320245</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,13 +5157,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>360.5895482553301</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C13" t="n">
-        <v>360.5895482553301</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D13" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E13" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1648.381645104808</v>
       </c>
       <c r="W13" t="n">
-        <v>909.2731541783409</v>
+        <v>1358.964475067847</v>
       </c>
       <c r="X13" t="n">
-        <v>681.2836032803235</v>
+        <v>1130.97492416983</v>
       </c>
       <c r="Y13" t="n">
-        <v>460.4910241367934</v>
+        <v>910.1823450263</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,10 +5264,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1034.340101969334</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622689</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5315,13 +5315,13 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,19 +5355,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1619.10445035469</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1330.001583480334</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208122</v>
+        <v>1330.001583480334</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838516</v>
+        <v>1040.584413443373</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858343</v>
+        <v>812.5948625453557</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423041</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089256</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1726.898991062666</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T19" t="n">
-        <v>1726.898991062666</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1437.79612418831</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1183.111635982423</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>893.6944659454626</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089256</v>
@@ -5753,16 +5753,16 @@
         <v>451.8458144277731</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.83252492416</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844494</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
         <v>1715.000032008794</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>823.6560115477723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1816.539799832167</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1561.85531162628</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1272.43814158932</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1044.448590691302</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>823.6560115477723</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,67 +5972,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074196</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427187</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622686</v>
+        <v>1803.682313196073</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294611</v>
+        <v>2750.971543384383</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353393</v>
+        <v>3297.750360443164</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3800.722831322501</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320233</v>
       </c>
       <c r="M24" t="n">
         <v>1241.476988454339</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008793</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.5293200614552</v>
+        <v>948.9529697264246</v>
       </c>
       <c r="C25" t="n">
-        <v>258.1230840952045</v>
+        <v>804.546733760174</v>
       </c>
       <c r="D25" t="n">
-        <v>258.1230840952045</v>
+        <v>678.9600413094945</v>
       </c>
       <c r="E25" t="n">
-        <v>258.1230840952045</v>
+        <v>555.5768946887576</v>
       </c>
       <c r="F25" t="n">
-        <v>258.1230840952045</v>
+        <v>433.2168941525035</v>
       </c>
       <c r="G25" t="n">
-        <v>217.2482742688803</v>
+        <v>290.0440044888788</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>168.3567646683928</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>164.7254679124494</v>
+        <v>164.7254679124492</v>
       </c>
       <c r="K25" t="n">
-        <v>392.7544518784451</v>
+        <v>392.7544518784447</v>
       </c>
       <c r="L25" t="n">
-        <v>733.3560513440607</v>
+        <v>733.35605134406</v>
       </c>
       <c r="M25" t="n">
-        <v>1101.554897960729</v>
+        <v>1101.554897960728</v>
       </c>
       <c r="N25" t="n">
-        <v>1467.005075683713</v>
+        <v>1467.005075683712</v>
       </c>
       <c r="O25" t="n">
-        <v>1790.376475621246</v>
+        <v>1790.376475621244</v>
       </c>
       <c r="P25" t="n">
-        <v>2047.025777072025</v>
+        <v>2047.025777072023</v>
       </c>
       <c r="Q25" t="n">
-        <v>2148.677874241659</v>
+        <v>2148.677874241657</v>
       </c>
       <c r="R25" t="n">
-        <v>2083.377363960843</v>
+        <v>2148.677874241657</v>
       </c>
       <c r="S25" t="n">
-        <v>1916.221426749326</v>
+        <v>2148.677874241657</v>
       </c>
       <c r="T25" t="n">
-        <v>1718.984758280508</v>
+        <v>2148.677874241657</v>
       </c>
       <c r="U25" t="n">
-        <v>1454.411838367808</v>
+        <v>2000.835488032778</v>
       </c>
       <c r="V25" t="n">
-        <v>1224.257297123578</v>
+        <v>1770.680946788547</v>
       </c>
       <c r="W25" t="n">
-        <v>959.3700740482734</v>
+        <v>1505.793723713243</v>
       </c>
       <c r="X25" t="n">
-        <v>755.9104701119123</v>
+        <v>1302.334119776882</v>
       </c>
       <c r="Y25" t="n">
-        <v>559.6478379300386</v>
+        <v>1106.071487595008</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6315,7 +6315,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068019</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6528,10 +6528,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
         <v>93.81666304797187</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756271</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468485</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962608</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589162</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190823</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190823</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685892</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319333</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380734</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311333</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979288</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656416</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.34019938252</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973199</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717218</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931276</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547837</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532434</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838288</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594057</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6689,46 +6689,46 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068019</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694718</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852267</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6765,10 +6765,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
         <v>93.81666304797187</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756271</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468485</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962608</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951535</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951535</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190823</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685892</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319333</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380734</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311333</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979288</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656416</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.34019938252</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973199</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717218</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931276</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547837</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532434</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838288</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594057</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6926,43 +6926,43 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111727</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068019</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694718</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852267</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7002,40 +7002,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273922</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803944</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516158</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167376</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167376</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998421</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237709</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732778</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107661</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319333</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311332</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656416</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.34019938252</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973199</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717218</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931276</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547837</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532434</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838288</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594057</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7160,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111727</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7239,40 +7239,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756271</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468485</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962608</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589162</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589162</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190823</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685892</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319333</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380734</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311333</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979288</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656416</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.34019938252</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973199</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717218</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931276</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547837</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532434</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838288</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594057</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.07903472198</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7585,7 +7585,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>344.7025836476839</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>251.186781668399</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>241.9338129178262</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0478149561016</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>344.7025836476824</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476815</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>417.9366924407944</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-8.666678164596947e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-9.206690643774623e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-9.359034814925869e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>-8.666678164596947e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.9710716513185</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>79.08069084741521</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>292.4169725791498</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.92951905928865</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>137.0244658653732</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>164.3835016851448</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S19" t="n">
-        <v>51.55114770987177</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696585</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>105.074288727013</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>147.8062085958013</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>101.2750990389275</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.06777291779832</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>64.64750517800769</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>165.4843778394022</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>195.2643017841295</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>115.5632283667828</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1414728.027378133</v>
+        <v>1414728.027378132</v>
       </c>
     </row>
     <row r="10">
@@ -26317,7 +26317,7 @@
         <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
         <v>19854.08934434915</v>
@@ -26335,25 +26335,25 @@
         <v>20201.46859870611</v>
       </c>
       <c r="J2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="K2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363078</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735911</v>
+        <v>376527.1335735921</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655987489357358e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123255.8861912282</v>
+        <v>123255.8861912283</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26424,7 +26424,7 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709188</v>
@@ -26433,31 +26433,31 @@
         <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>29610.46726018532</v>
+        <v>29610.4672601854</v>
       </c>
       <c r="J4" t="n">
         <v>12448.5078997516</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.5078997514</v>
+        <v>12448.50789975162</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.50789975139</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975139</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.5078997514</v>
+        <v>12448.50789975159</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975156</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.5078997516</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>98425.10428372196</v>
+        <v>98425.10428372191</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-778576.8889033158</v>
+        <v>-778878.89787139</v>
       </c>
       <c r="C6" t="n">
         <v>-254539.6302092321</v>
@@ -26528,40 +26528,40 @@
         <v>-254539.6302092321</v>
       </c>
       <c r="E6" t="n">
-        <v>-825526.450899863</v>
+        <v>-825593.6463900888</v>
       </c>
       <c r="F6" t="n">
-        <v>-98149.03690645637</v>
+        <v>-98216.23239668217</v>
       </c>
       <c r="G6" t="n">
-        <v>-98149.03690645639</v>
+        <v>-98216.23239668211</v>
       </c>
       <c r="H6" t="n">
-        <v>-98149.03690645637</v>
+        <v>-98216.23239668216</v>
       </c>
       <c r="I6" t="n">
-        <v>-127261.820938833</v>
+        <v>-127294.2785036221</v>
       </c>
       <c r="J6" t="n">
-        <v>-471613.713080651</v>
+        <v>-471613.7130806519</v>
       </c>
       <c r="K6" t="n">
-        <v>-95086.5795070614</v>
+        <v>-95086.57950705994</v>
       </c>
       <c r="L6" t="n">
-        <v>-95086.57950705974</v>
+        <v>-95086.57950705991</v>
       </c>
       <c r="M6" t="n">
-        <v>-224728.8943460045</v>
+        <v>-224728.8943460046</v>
       </c>
       <c r="N6" t="n">
-        <v>-114514.2975006916</v>
+        <v>-114514.2975006917</v>
       </c>
       <c r="O6" t="n">
-        <v>-95086.57950705844</v>
+        <v>-95086.5795070599</v>
       </c>
       <c r="P6" t="n">
-        <v>-95086.57950705983</v>
+        <v>-95086.5795070599</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,22 +26756,22 @@
         <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="K3" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.253045163859709e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492738</v>
+        <v>652.4826302492737</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>52.3334934033648</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>35.33528589098512</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>13.4367677532949</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.82750184132323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>231.4340675651214</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>19.08866629414086</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>125.566801220841</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>17.65046194477912</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>78.19316337952819</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>53.14542677928243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>218.0915804983418</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203954</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203954</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32558,10 +32558,10 @@
         <v>508.9565619138798</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970252</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H23" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844664</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003806</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623187</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574988</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095017</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099053</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746408</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781686</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806942</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752251</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353154</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138792</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233471</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970273</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002923</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987484</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898503</v>
+        <v>9.44815837589849</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742014</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316434</v>
+        <v>308.049502431643</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R25" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712208</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553033</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112289</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,10 +33035,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422594</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862134</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214708</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485297</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422594</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>416.4300581532571</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437255</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214708</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485297</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007751</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422594</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437255</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214708</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485297</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418564</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422594</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862134</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>370.9642309107688</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214708</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485297</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>303.4297552732313</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>883.6236994779107</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>588.3780682237993</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>697.5239273101583</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>359.8836161407865</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015115023</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923324</v>
+        <v>800.2926980400148</v>
       </c>
       <c r="M20" t="n">
         <v>538.921115830227</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129117</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509648</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908547</v>
@@ -36206,10 +36206,10 @@
         <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N21" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525808</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265648</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400139</v>
+        <v>873.2513289427819</v>
       </c>
       <c r="M23" t="n">
-        <v>538.921115830227</v>
+        <v>956.8578082710205</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129108</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882185</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193713</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636238</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>125.329618415207</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609564</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.402182134005</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013287</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525829</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859621</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.86306410510602</v>
+        <v>69.86306410510583</v>
       </c>
       <c r="K25" t="n">
-        <v>230.3323070363594</v>
+        <v>230.3323070363591</v>
       </c>
       <c r="L25" t="n">
-        <v>344.042019662238</v>
+        <v>344.0420196622376</v>
       </c>
       <c r="M25" t="n">
-        <v>371.9180268855237</v>
+        <v>371.9180268855233</v>
       </c>
       <c r="N25" t="n">
-        <v>369.1415936595799</v>
+        <v>369.1415936595796</v>
       </c>
       <c r="O25" t="n">
-        <v>326.6377777146797</v>
+        <v>326.6377777146793</v>
       </c>
       <c r="P25" t="n">
-        <v>259.2417186371503</v>
+        <v>259.24171863715</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.6788860299335</v>
+        <v>102.6788860299332</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683711</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496679004</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641952</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663244</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071406</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625082</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.617235901675</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111716</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930853</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819477</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980856</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.916420798665</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919383</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902289</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496679004</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2960242312388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992811</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071406</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625082</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.617235901675</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111716</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930853</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819477</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980856</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
-        <v>319.916420798665</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919383</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396428</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902289</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.7852396007751</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496679004</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525711</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992811</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071406</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625082</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789242</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.617235901675</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111716</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930853</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819477</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980856</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.916420798665</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919382</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243061</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496679004</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641952</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>228.3679864663244</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071406</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625082</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.617235901675</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111716</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930853</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819477</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980856</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.916420798665</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919383</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>159.0482712280113</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>160.8335108287869</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
